--- a/mtg-tag-count/deck.xlsx
+++ b/mtg-tag-count/deck.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Deck" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,6 +64,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -425,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +502,57 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>tutor-land-basic</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>land</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ramp_cum</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>removal_cum</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>protects-permanent_cum</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>card advantage_cum</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>sweeper_cum</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>recursion_cum</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tutor_cum</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tutor-land_cum</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>tutor-land-basic_cum</t>
         </is>
       </c>
     </row>
@@ -524,6 +590,36 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -561,7 +657,37 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,6 +726,36 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -635,7 +791,37 @@
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +858,37 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -711,6 +927,36 @@
       <c r="K7" t="b">
         <v>0</v>
       </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -748,6 +994,36 @@
       <c r="K8" t="b">
         <v>0</v>
       </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -785,6 +1061,36 @@
       <c r="K9" t="b">
         <v>0</v>
       </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -820,7 +1126,37 @@
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -857,7 +1193,37 @@
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -896,6 +1262,36 @@
       <c r="K12" t="b">
         <v>1</v>
       </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -933,6 +1329,36 @@
       <c r="K13" t="b">
         <v>0</v>
       </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,7 +1394,37 @@
         <v>1</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1005,7 +1461,37 @@
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1044,6 +1530,36 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1081,6 +1597,36 @@
       <c r="K17" t="b">
         <v>0</v>
       </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,6 +1664,36 @@
       <c r="K18" t="b">
         <v>0</v>
       </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1155,6 +1731,36 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1192,6 +1798,36 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1229,6 +1865,36 @@
       <c r="K21" t="b">
         <v>0</v>
       </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1264,7 +1930,37 @@
         <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1303,6 +1999,36 @@
       <c r="K23" t="b">
         <v>1</v>
       </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1340,6 +2066,36 @@
       <c r="K24" t="b">
         <v>0</v>
       </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1377,6 +2133,36 @@
       <c r="K25" t="b">
         <v>0</v>
       </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>8</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1414,6 +2200,36 @@
       <c r="K26" t="b">
         <v>0</v>
       </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>12</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1451,6 +2267,36 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>12</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,7 +2332,37 @@
         <v>1</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9</v>
+      </c>
+      <c r="U28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1525,21 +2401,51 @@
       <c r="K29" t="b">
         <v>0</v>
       </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>13</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>9</v>
+      </c>
+      <c r="U29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Misty Rainforest</t>
+          <t>Generous Gift</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1554,22 +2460,52 @@
         <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9</v>
+      </c>
+      <c r="U30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Polluted Delta</t>
+          <t>Windswept Heath</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1597,7 +2533,37 @@
         <v>1</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="n">
+        <v>10</v>
+      </c>
+      <c r="U31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1606,14 +2572,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Generous Gift</t>
+          <t>Wooded Foothills</t>
         </is>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1628,13 +2594,43 @@
         <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>11</v>
+      </c>
+      <c r="T32" t="n">
+        <v>11</v>
+      </c>
+      <c r="U32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1643,7 +2639,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Verdant Catacombs</t>
+          <t>Arid Mesa</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1671,20 +2667,50 @@
         <v>1</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>13</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>12</v>
+      </c>
+      <c r="T33" t="n">
+        <v>12</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Marsh Flats</t>
+          <t>Temple of the False God</t>
         </is>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1702,22 +2728,52 @@
         <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>14</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>12</v>
+      </c>
+      <c r="T34" t="n">
+        <v>12</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Flooded Strand</t>
+          <t>Eternal Witness</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1730,31 +2786,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>14</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>12</v>
+      </c>
+      <c r="T35" t="n">
+        <v>12</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Scalding Tarn</t>
+          <t>Yavimaya, Cradle of Growth</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1776,22 +2862,52 @@
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>12</v>
+      </c>
+      <c r="T36" t="n">
+        <v>12</v>
+      </c>
+      <c r="U36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bloodstained Mire</t>
+          <t>Esper Sentinel</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1804,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1813,22 +2929,52 @@
         <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>14</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>12</v>
+      </c>
+      <c r="T37" t="n">
+        <v>12</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Windswept Heath</t>
+          <t>Fabled Passage</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1857,22 +3003,52 @@
       </c>
       <c r="K38" t="b">
         <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>14</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>13</v>
+      </c>
+      <c r="T38" t="n">
+        <v>13</v>
+      </c>
+      <c r="U38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Wooded Foothills</t>
+          <t>Boseiju, Who Endures</t>
         </is>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1893,16 +3069,46 @@
         <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>14</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>14</v>
+      </c>
+      <c r="T39" t="n">
+        <v>14</v>
+      </c>
+      <c r="U39" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Arid Mesa</t>
+          <t>Stomping Ground</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1924,26 +3130,56 @@
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>14</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>14</v>
+      </c>
+      <c r="T40" t="n">
+        <v>14</v>
+      </c>
+      <c r="U40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Temple of the False God</t>
+          <t>Cinder Glade</t>
         </is>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1967,16 +3203,46 @@
         <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>14</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>14</v>
+      </c>
+      <c r="T41" t="n">
+        <v>14</v>
+      </c>
+      <c r="U41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Urborg, Tomb of Yawgmoth</t>
+          <t>Temple Garden</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -2004,16 +3270,46 @@
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>14</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>14</v>
+      </c>
+      <c r="T42" t="n">
+        <v>14</v>
+      </c>
+      <c r="U42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Eternal Witness</t>
+          <t>Faithless Looting</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -2032,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2042,15 +3338,45 @@
       </c>
       <c r="K43" t="b">
         <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>14</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>14</v>
+      </c>
+      <c r="T43" t="n">
+        <v>14</v>
+      </c>
+      <c r="U43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yavimaya, Cradle of Growth</t>
+          <t>Sacred Foundry</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -2078,16 +3404,46 @@
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>14</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14</v>
+      </c>
+      <c r="T44" t="n">
+        <v>14</v>
+      </c>
+      <c r="U44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Esper Sentinel</t>
+          <t>Canopy Vista</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2100,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2116,15 +3472,45 @@
       </c>
       <c r="K45" t="b">
         <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>14</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>14</v>
+      </c>
+      <c r="T45" t="n">
+        <v>14</v>
+      </c>
+      <c r="U45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fabled Passage</t>
+          <t>City of Brass</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2146,35 +3532,65 @@
         <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>14</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14</v>
+      </c>
+      <c r="T46" t="n">
+        <v>14</v>
+      </c>
+      <c r="U46" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Boseiju, Who Endures</t>
+          <t>Garruk's Uprising</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2183,29 +3599,59 @@
         <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>14</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>14</v>
+      </c>
+      <c r="T47" t="n">
+        <v>14</v>
+      </c>
+      <c r="U47" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Stomping Ground</t>
+          <t>Vandalblast</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -2214,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -2226,16 +3672,46 @@
         <v>0</v>
       </c>
       <c r="K48" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>14</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14</v>
+      </c>
+      <c r="T48" t="n">
+        <v>14</v>
+      </c>
+      <c r="U48" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cinder Glade</t>
+          <t>Cavern of Souls</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2263,16 +3739,46 @@
         <v>0</v>
       </c>
       <c r="K49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>14</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>14</v>
+      </c>
+      <c r="T49" t="n">
+        <v>14</v>
+      </c>
+      <c r="U49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Temple Garden</t>
+          <t>Clifftop Retreat</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2300,16 +3806,46 @@
         <v>0</v>
       </c>
       <c r="K50" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>14</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14</v>
+      </c>
+      <c r="T50" t="n">
+        <v>14</v>
+      </c>
+      <c r="U50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Faithless Looting</t>
+          <t>Herald's Horn</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -2338,15 +3874,45 @@
       </c>
       <c r="K51" t="b">
         <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>14</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>14</v>
+      </c>
+      <c r="U51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sacred Foundry</t>
+          <t>Return of the Wildspeaker</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2359,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2374,16 +3940,46 @@
         <v>0</v>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>14</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14</v>
+      </c>
+      <c r="T52" t="n">
+        <v>14</v>
+      </c>
+      <c r="U52" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Canopy Vista</t>
+          <t>Farewell</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2399,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -2411,16 +4007,46 @@
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>14</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>14</v>
+      </c>
+      <c r="T53" t="n">
+        <v>14</v>
+      </c>
+      <c r="U53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>City of Brass</t>
+          <t>Austere Command</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2436,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -2448,29 +4074,59 @@
         <v>0</v>
       </c>
       <c r="K54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>14</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14</v>
+      </c>
+      <c r="T54" t="n">
+        <v>14</v>
+      </c>
+      <c r="U54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Garruk's Uprising</t>
+          <t>Abrade</t>
         </is>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2486,15 +4142,45 @@
       </c>
       <c r="K55" t="b">
         <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>14</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>14</v>
+      </c>
+      <c r="T55" t="n">
+        <v>14</v>
+      </c>
+      <c r="U55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vandalblast</t>
+          <t>Boros Charm</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -2504,13 +4190,13 @@
         <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2523,15 +4209,45 @@
       </c>
       <c r="K56" t="b">
         <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>14</v>
+      </c>
+      <c r="N56" t="n">
+        <v>9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4</v>
+      </c>
+      <c r="P56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>14</v>
+      </c>
+      <c r="T56" t="n">
+        <v>14</v>
+      </c>
+      <c r="U56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cavern of Souls</t>
+          <t>Flawless Maneuver</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -2541,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -2559,20 +4275,50 @@
         <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>14</v>
+      </c>
+      <c r="N57" t="n">
+        <v>9</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>14</v>
+      </c>
+      <c r="T57" t="n">
+        <v>14</v>
+      </c>
+      <c r="U57" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Clifftop Retreat</t>
+          <t>Sun Titan</t>
         </is>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -2587,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2596,16 +4342,46 @@
         <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>15</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>14</v>
+      </c>
+      <c r="T58" t="n">
+        <v>14</v>
+      </c>
+      <c r="U58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mana Confluence</t>
+          <t>Finale of Devastation</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -2624,29 +4400,59 @@
         <v>0</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>15</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9</v>
+      </c>
+      <c r="O59" t="n">
+        <v>5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>15</v>
+      </c>
+      <c r="T59" t="n">
+        <v>14</v>
+      </c>
+      <c r="U59" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Urza's Saga</t>
+          <t>Sevinne's Reclamation</t>
         </is>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -2661,25 +4467,55 @@
         <v>0</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>16</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>15</v>
+      </c>
+      <c r="T60" t="n">
+        <v>14</v>
+      </c>
+      <c r="U60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Herald's Horn</t>
+          <t>Imperial Recruiter</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -2692,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -2701,22 +4537,52 @@
         <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>16</v>
+      </c>
+      <c r="N61" t="n">
+        <v>9</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5</v>
+      </c>
+      <c r="P61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>16</v>
+      </c>
+      <c r="T61" t="n">
+        <v>14</v>
+      </c>
+      <c r="U61" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>War Room</t>
+          <t>Chord of Calling</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -2729,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -2738,22 +4604,52 @@
         <v>0</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>16</v>
+      </c>
+      <c r="N62" t="n">
+        <v>9</v>
+      </c>
+      <c r="O62" t="n">
+        <v>5</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>17</v>
+      </c>
+      <c r="T62" t="n">
+        <v>14</v>
+      </c>
+      <c r="U62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Battlefield Forge</t>
+          <t>Green Sun's Zenith</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2775,22 +4671,52 @@
         <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>16</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>18</v>
+      </c>
+      <c r="T63" t="n">
+        <v>14</v>
+      </c>
+      <c r="U63" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Farewell</t>
+          <t>Eladamri's Call</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -2806,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
@@ -2820,563 +4746,118 @@
       <c r="K64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Austere Command</t>
-        </is>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Abrade</t>
-        </is>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Rootbound Crag</t>
-        </is>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Spectator Seating</t>
-        </is>
-      </c>
-      <c r="C68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Boros Charm</t>
-        </is>
-      </c>
-      <c r="C69" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Sunpetal Grove</t>
-        </is>
-      </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Lightning Bolt</t>
-        </is>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Buried Ruin</t>
-        </is>
-      </c>
-      <c r="C72" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Flawless Maneuver</t>
-        </is>
-      </c>
-      <c r="C73" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Sun Titan</t>
-        </is>
-      </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Bala Ged Recovery // Bala Ged Sanctuary</t>
-        </is>
-      </c>
-      <c r="C75" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Finale of Devastation</t>
-        </is>
-      </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Inventors' Fair</t>
-        </is>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Imperial Recruiter</t>
-        </is>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Chord of Calling</t>
-        </is>
-      </c>
-      <c r="C79" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" t="b">
-        <v>0</v>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>16</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>19</v>
+      </c>
+      <c r="T64" t="n">
+        <v>14</v>
+      </c>
+      <c r="U64" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B64">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C64">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D64">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E64">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F64">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G64">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H64">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I64">
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J64">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K64">
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>